--- a/MiilonData/SergeGainsbourg.xlsx
+++ b/MiilonData/SergeGainsbourg.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t>had</t>
   </si>
@@ -264,6 +264,204 @@
   </si>
   <si>
     <t>Mot français</t>
+  </si>
+  <si>
+    <t>roucouler</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>rukule.</t>
+  </si>
+  <si>
+    <t>cukrovat, vrkat</t>
+  </si>
+  <si>
+    <t>pépier</t>
+  </si>
+  <si>
+    <t>pe.pje.</t>
+  </si>
+  <si>
+    <t>pípat, štěbetat</t>
+  </si>
+  <si>
+    <t>caqueter</t>
+  </si>
+  <si>
+    <t>kakte.</t>
+  </si>
+  <si>
+    <t>kdákat</t>
+  </si>
+  <si>
+    <t>jacasser</t>
+  </si>
+  <si>
+    <t>žakase.</t>
+  </si>
+  <si>
+    <t>štěbetat</t>
+  </si>
+  <si>
+    <t>blatérer</t>
+  </si>
+  <si>
+    <t>blate.re.</t>
+  </si>
+  <si>
+    <t>bečet (o beranu), mečet (o velbloudu)</t>
+  </si>
+  <si>
+    <t>'huer</t>
+  </si>
+  <si>
+    <t>üe.</t>
+  </si>
+  <si>
+    <t>houkat (o sově)</t>
+  </si>
+  <si>
+    <t>râler</t>
+  </si>
+  <si>
+    <t>rale.</t>
+  </si>
+  <si>
+    <t>chroptět, chrčet, řvát (tygr)</t>
+  </si>
+  <si>
+    <t>craquer</t>
+  </si>
+  <si>
+    <t>krake.</t>
+  </si>
+  <si>
+    <t>praskat, skřípat, vrzat</t>
+  </si>
+  <si>
+    <t>baréter</t>
+  </si>
+  <si>
+    <t>bare.te.</t>
+  </si>
+  <si>
+    <t>troubit (o slonu)</t>
+  </si>
+  <si>
+    <t>hennir</t>
+  </si>
+  <si>
+    <t>eni:r</t>
+  </si>
+  <si>
+    <t>řehtat, ržát (o koni)</t>
+  </si>
+  <si>
+    <t>'hululer</t>
+  </si>
+  <si>
+    <t>ülüle.</t>
+  </si>
+  <si>
+    <t>coasser</t>
+  </si>
+  <si>
+    <t>koase.</t>
+  </si>
+  <si>
+    <t>kvákat, kuňkat</t>
+  </si>
+  <si>
+    <t>piauler</t>
+  </si>
+  <si>
+    <t>pjo.le.</t>
+  </si>
+  <si>
+    <t>pípat</t>
+  </si>
+  <si>
+    <t>croasser</t>
+  </si>
+  <si>
+    <t>kroase.</t>
+  </si>
+  <si>
+    <t>krákorat, krákat (o vráně)</t>
+  </si>
+  <si>
+    <t>cajoler</t>
+  </si>
+  <si>
+    <t>kažole.</t>
+  </si>
+  <si>
+    <t>křičet (o strace, sojce)</t>
+  </si>
+  <si>
+    <t>bramer</t>
+  </si>
+  <si>
+    <t>brame.</t>
+  </si>
+  <si>
+    <t>troubit (o jelenu)</t>
+  </si>
+  <si>
+    <t>braire</t>
+  </si>
+  <si>
+    <t>bre:r</t>
+  </si>
+  <si>
+    <t>hýkat (o oslu)</t>
+  </si>
+  <si>
+    <t>cancaner</t>
+  </si>
+  <si>
+    <t>ka~kane.</t>
+  </si>
+  <si>
+    <t>káchat (o kachně)</t>
+  </si>
+  <si>
+    <t>mugir</t>
+  </si>
+  <si>
+    <t>müži:r</t>
+  </si>
+  <si>
+    <t>bučet</t>
+  </si>
+  <si>
+    <t>glouglouter</t>
+  </si>
+  <si>
+    <t>gluglute.</t>
+  </si>
+  <si>
+    <t>hudrovat (krocan)</t>
+  </si>
+  <si>
+    <t>brailler</t>
+  </si>
+  <si>
+    <t>braje.</t>
+  </si>
+  <si>
+    <t>řvát, vřeštět (páv)</t>
+  </si>
+  <si>
+    <t>margoter</t>
+  </si>
+  <si>
+    <t>margote.</t>
+  </si>
+  <si>
+    <t>volat (o křepelce)</t>
   </si>
 </sst>
 </file>
@@ -612,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +850,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A2 &amp; """, ""grammar"": """ &amp; B2 &amp; """, ""pronunciation"": """ &amp; C2 &amp; """, ""meaning"": """ &amp; D2 &amp; """ },"</f>
+        <f t="shared" ref="F2:F49" si="0" xml:space="preserve"> "{ ""foreign"": """ &amp; A2 &amp; """, ""grammar"": """ &amp; B2 &amp; """, ""pronunciation"": """ &amp; C2 &amp; """, ""meaning"": """ &amp; D2 &amp; """ },"</f>
         <v>{ "foreign": "ramier", "grammar": "nm", "pronunciation": "ramje.", "meaning": "doupňák (holub)" },</v>
       </c>
     </row>
@@ -670,7 +868,7 @@
         <v>70</v>
       </c>
       <c r="F3" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A3 &amp; """, ""grammar"": """ &amp; B3 &amp; """, ""pronunciation"": """ &amp; C3 &amp; """, ""meaning"": """ &amp; D3 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "moineau", "grammar": "nm", "pronunciation": "mu^ano.", "meaning": "vrabec" },</v>
       </c>
     </row>
@@ -688,7 +886,7 @@
         <v>67</v>
       </c>
       <c r="F4" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A4 &amp; """, ""grammar"": """ &amp; B4 &amp; """, ""pronunciation"": """ &amp; C4 &amp; """, ""meaning"": """ &amp; D4 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "poule", "grammar": "nf", "pronunciation": "pul", "meaning": "slepice" },</v>
       </c>
     </row>
@@ -706,7 +904,7 @@
         <v>64</v>
       </c>
       <c r="F5" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A5 &amp; """, ""grammar"": """ &amp; B5 &amp; """, ""pronunciation"": """ &amp; C5 &amp; """, ""meaning"": """ &amp; D5 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "pie", "grammar": "nf", "pronunciation": "pi", "meaning": "straka" },</v>
       </c>
     </row>
@@ -724,7 +922,7 @@
         <v>61</v>
       </c>
       <c r="F6" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A6 &amp; """, ""grammar"": """ &amp; B6 &amp; """, ""pronunciation"": """ &amp; C6 &amp; """, ""meaning"": """ &amp; D6 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "chameau", "grammar": "nm", "pronunciation": "šamo.", "meaning": "velbloud (dvouhrbý)" },</v>
       </c>
     </row>
@@ -742,7 +940,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A7 &amp; """, ""grammar"": """ &amp; B7 &amp; """, ""pronunciation"": """ &amp; C7 &amp; """, ""meaning"": """ &amp; D7 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "'hibou", "grammar": "nm", "pronunciation": "ibu", "meaning": "sova" },</v>
       </c>
     </row>
@@ -760,7 +958,7 @@
         <v>56</v>
       </c>
       <c r="F8" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A8 &amp; """, ""grammar"": """ &amp; B8 &amp; """, ""pronunciation"": """ &amp; C8 &amp; """, ""meaning"": """ &amp; D8 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "panthère", "grammar": "nf", "pronunciation": "pa~te:r", "meaning": "pardál, levhart" },</v>
       </c>
     </row>
@@ -778,7 +976,7 @@
         <v>53</v>
       </c>
       <c r="F9" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A9 &amp; """, ""grammar"": """ &amp; B9 &amp; """, ""pronunciation"": """ &amp; C9 &amp; """, ""meaning"": """ &amp; D9 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "grue", "grammar": "nf", "pronunciation": "grü", "meaning": "jeřáb (pták, stroj)" },</v>
       </c>
     </row>
@@ -796,7 +994,7 @@
         <v>50</v>
       </c>
       <c r="F10" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A10 &amp; """, ""grammar"": """ &amp; B10 &amp; """, ""pronunciation"": """ &amp; C10 &amp; """, ""meaning"": """ &amp; D10 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "éléphant", "grammar": "nm", "pronunciation": "e.le.fa~", "meaning": "slon" },</v>
       </c>
     </row>
@@ -814,7 +1012,7 @@
         <v>47</v>
       </c>
       <c r="F11" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A11 &amp; """, ""grammar"": """ &amp; B11 &amp; """, ""pronunciation"": """ &amp; C11 &amp; """, ""meaning"": """ &amp; D11 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "jument", "grammar": "nf", "pronunciation": "žüma~", "meaning": "kobyla, klisna" },</v>
       </c>
     </row>
@@ -832,7 +1030,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A12 &amp; """, ""grammar"": """ &amp; B12 &amp; """, ""pronunciation"": """ &amp; C12 &amp; """, ""meaning"": """ &amp; D12 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "chouette", "grammar": "nf", "pronunciation": "šu^et", "meaning": "sova" },</v>
       </c>
     </row>
@@ -850,7 +1048,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A13 &amp; """, ""grammar"": """ &amp; B13 &amp; """, ""pronunciation"": """ &amp; C13 &amp; """, ""meaning"": """ &amp; D13 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "brebis", "grammar": "nf", "pronunciation": "br@bi", "meaning": "ovce" },</v>
       </c>
     </row>
@@ -868,7 +1066,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A14 &amp; """, ""grammar"": """ &amp; B14 &amp; """, ""pronunciation"": """ &amp; C14 &amp; """, ""meaning"": """ &amp; D14 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "crapaud", "grammar": "nm", "pronunciation": "krapo.", "meaning": "ropucha, žába" },</v>
       </c>
     </row>
@@ -886,7 +1084,7 @@
         <v>35</v>
       </c>
       <c r="F15" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A15 &amp; """, ""grammar"": """ &amp; B15 &amp; """, ""pronunciation"": """ &amp; C15 &amp; """, ""meaning"": """ &amp; D15 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "poulet", "grammar": "nm", "pronunciation": "pule", "meaning": "kuře" },</v>
       </c>
     </row>
@@ -904,7 +1102,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A16 &amp; """, ""grammar"": """ &amp; B16 &amp; """, ""pronunciation"": """ &amp; C16 &amp; """, ""meaning"": """ &amp; D16 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "corbeau", "grammar": "nm", "pronunciation": "korbo.", "meaning": "krkavec, havran" },</v>
       </c>
     </row>
@@ -922,7 +1120,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A17 &amp; """, ""grammar"": """ &amp; B17 &amp; """, ""pronunciation"": """ &amp; C17 &amp; """, ""meaning"": """ &amp; D17 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "geai", "grammar": "nm", "pronunciation": "že", "meaning": "sojka" },</v>
       </c>
     </row>
@@ -940,7 +1138,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A18 &amp; """, ""grammar"": """ &amp; B18 &amp; """, ""pronunciation"": """ &amp; C18 &amp; """, ""meaning"": """ &amp; D18 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "cerf", "grammar": "nm", "pronunciation": "se:r", "meaning": "jelen" },</v>
       </c>
     </row>
@@ -958,7 +1156,7 @@
         <v>23</v>
       </c>
       <c r="F19" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A19 &amp; """, ""grammar"": """ &amp; B19 &amp; """, ""pronunciation"": """ &amp; C19 &amp; """, ""meaning"": """ &amp; D19 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "âne", "grammar": "nm", "pronunciation": "a:n", "meaning": "osel" },</v>
       </c>
     </row>
@@ -976,7 +1174,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A20 &amp; """, ""grammar"": """ &amp; B20 &amp; """, ""pronunciation"": """ &amp; C20 &amp; """, ""meaning"": """ &amp; D20 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "lion", "grammar": "nm", "pronunciation": "ljo~", "meaning": "lev" },</v>
       </c>
     </row>
@@ -994,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A21 &amp; """, ""grammar"": """ &amp; B21 &amp; """, ""pronunciation"": """ &amp; C21 &amp; """, ""meaning"": """ &amp; D21 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "cane", "grammar": "nf", "pronunciation": "kan", "meaning": "kachna (samice)" },</v>
       </c>
     </row>
@@ -1012,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="F22" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A22 &amp; """, ""grammar"": """ &amp; B22 &amp; """, ""pronunciation"": """ &amp; C22 &amp; """, ""meaning"": """ &amp; D22 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "taureau", "grammar": "nm", "pronunciation": "toro.", "meaning": "býk" },</v>
       </c>
     </row>
@@ -1030,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="F23" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A23 &amp; """, ""grammar"": """ &amp; B23 &amp; """, ""pronunciation"": """ &amp; C23 &amp; """, ""meaning"": """ &amp; D23 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "dindon", "grammar": "nm", "pronunciation": "de~do~", "meaning": "krocan" },</v>
       </c>
     </row>
@@ -1048,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A24 &amp; """, ""grammar"": """ &amp; B24 &amp; """, ""pronunciation"": """ &amp; C24 &amp; """, ""meaning"": """ &amp; D24 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "paon", "grammar": "nm", "pronunciation": "pa~", "meaning": "páv" },</v>
       </c>
     </row>
@@ -1066,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A25 &amp; """, ""grammar"": """ &amp; B25 &amp; """, ""pronunciation"": """ &amp; C25 &amp; """, ""meaning"": """ &amp; D25 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "caille", "grammar": "nf", "pronunciation": "ka:j", "meaning": "křepelka" },</v>
       </c>
     </row>
@@ -1084,8 +1282,404 @@
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <f xml:space="preserve"> "{ ""foreign"": """ &amp; A26 &amp; """, ""grammar"": """ &amp; B26 &amp; """, ""pronunciation"": """ &amp; C26 &amp; """, ""meaning"": """ &amp; D26 &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ "foreign": "serpent", "grammar": "nm", "pronunciation": "serpa~", "meaning": "had" },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "roucouler", "grammar": "vi", "pronunciation": "rukule.", "meaning": "cukrovat, vrkat" },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "pépier", "grammar": "vi", "pronunciation": "pe.pje.", "meaning": "pípat, štěbetat" },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "caqueter", "grammar": "vi", "pronunciation": "kakte.", "meaning": "kdákat" },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "jacasser", "grammar": "vi", "pronunciation": "žakase.", "meaning": "štěbetat" },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "blatérer", "grammar": "vi", "pronunciation": "blate.re.", "meaning": "bečet (o beranu), mečet (o velbloudu)" },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "'huer", "grammar": "vi", "pronunciation": "üe.", "meaning": "houkat (o sově)" },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "râler", "grammar": "vi", "pronunciation": "rale.", "meaning": "chroptět, chrčet, řvát (tygr)" },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "craquer", "grammar": "vi", "pronunciation": "krake.", "meaning": "praskat, skřípat, vrzat" },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "baréter", "grammar": "vi", "pronunciation": "bare.te.", "meaning": "troubit (o slonu)" },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "hennir", "grammar": "vi", "pronunciation": "eni:r", "meaning": "řehtat, ržát (o koni)" },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "'hululer", "grammar": "vi", "pronunciation": "ülüle.", "meaning": "houkat (o sově)" },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "coasser", "grammar": "vi", "pronunciation": "koase.", "meaning": "kvákat, kuňkat" },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "piauler", "grammar": "vi", "pronunciation": "pjo.le.", "meaning": "pípat" },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "croasser", "grammar": "vi", "pronunciation": "kroase.", "meaning": "krákorat, krákat (o vráně)" },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "cajoler", "grammar": "vi", "pronunciation": "kažole.", "meaning": "křičet (o strace, sojce)" },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "bramer", "grammar": "vi", "pronunciation": "brame.", "meaning": "troubit (o jelenu)" },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "braire", "grammar": "vi", "pronunciation": "bre:r", "meaning": "hýkat (o oslu)" },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "cancaner", "grammar": "vi", "pronunciation": "ka~kane.", "meaning": "káchat (o kachně)" },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "mugir", "grammar": "vi", "pronunciation": "müži:r", "meaning": "bučet" },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "glouglouter", "grammar": "vi", "pronunciation": "gluglute.", "meaning": "hudrovat (krocan)" },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "brailler", "grammar": "vi", "pronunciation": "braje.", "meaning": "řvát, vřeštět (páv)" },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "foreign": "margoter", "grammar": "vi", "pronunciation": "margote.", "meaning": "volat (o křepelce)" },</v>
       </c>
     </row>
   </sheetData>
